--- a/项目进度文档/缺陷跟踪报告.xlsx
+++ b/项目进度文档/缺陷跟踪报告.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tank_fire\tank_fire\项目进度文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DDC7BB-92F4-49DB-9FF9-AE11E3BA34F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BC3CDF-2439-44E6-9846-ECF4D335E8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{EB269BDF-E647-49DF-AE31-D5C3E952BFDC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -57,6 +57,66 @@
   </si>
   <si>
     <t>状态：发现、解决、延迟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小地图发黑，没有具体画面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹碰撞逻辑错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI互相攻击，敌我不分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载界面坦克不同步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新UI资产迁移错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新地图整合出错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手教程制作特效出错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转特效与UI界面不兼容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导航网格体出错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮弹装载的进度条动画</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停功能集成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单面板修订</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -140,9 +200,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -151,12 +220,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,7 +539,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D19:F20"/>
+      <selection activeCell="B17" sqref="B17:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -485,50 +548,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="23.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="4" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -536,348 +599,432 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="B5" s="2">
+        <v>45483</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="B6" s="2">
+        <v>45484</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="B7" s="2">
+        <v>45484</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="B8" s="2">
+        <v>45484</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="B9" s="2">
+        <v>45484</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="B10" s="2">
+        <v>45484</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="B11" s="2">
+        <v>45484</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="B12" s="2">
+        <v>45484</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="B13" s="2">
+        <v>45485</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="B14" s="2">
+        <v>45485</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="B15" s="2">
+        <v>45485</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="B16" s="2">
+        <v>45485</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>17</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>18</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>19</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>20</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>21</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>22</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>23</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>24</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>25</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>26</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>27</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>28</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>29</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>30</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>31</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>32</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>33</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>34</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>35</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="74">
@@ -886,11 +1033,6 @@
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="D23:F23"/>
@@ -898,11 +1040,11 @@
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D11:F11"/>
@@ -910,21 +1052,16 @@
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
@@ -932,11 +1069,11 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
@@ -944,17 +1081,27 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
